--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-VW-B2-ESS/pyControllerList/Storage Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-VW-B2-ESS/pyControllerList/Storage Controller.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0049DE94-F992-4D40-8B8F-81BF5E0C7E39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34520" yWindow="4420" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16140" yWindow="4420" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1311,7 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1499,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="12">
-        <v>-4000</v>
+        <v>-3500</v>
       </c>
       <c r="I3" s="12">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J3" s="12">
         <v>-50</v>
@@ -1595,13 +1596,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FAD104BB-D543-6F49-B468-34743A777B41}">
           <x14:formula1>
-            <xm:f>'[Storage Controller Sumitomo.xlsx]Settings'!#REF!</xm:f>
+            <xm:f>'/Users/jgiralde/Downloads/[Storage Controller Sumitomo.xlsx]Settings'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C4391C1-2F30-1C4B-876A-C01A5C978C5F}">
           <x14:formula1>
-            <xm:f>'[Storage Controller Sumitomo.xlsx]Settings'!#REF!</xm:f>
+            <xm:f>'/Users/jgiralde/Downloads/[Storage Controller Sumitomo.xlsx]Settings'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
